--- a/biology/Botanique/Calcéolaire/Calcéolaire.xlsx
+++ b/biology/Botanique/Calcéolaire/Calcéolaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calc%C3%A9olaire</t>
+          <t>Calcéolaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calceolaria
 Les calcéolaires, soit le genre Calceolaria, sont des plantes herbacées de la famille des Scrophulariaceae, ou des Calceolariaceae selon la classification phylogénétique.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calc%C3%A9olaire</t>
+          <t>Calcéolaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée, annuelle à feuilles en rosette, plutôt grandes, de 30 à 40 cm et jusqu'à 50-60 cm dans certains cas[1]  molles, pubescentes ou velues, d'un vert sombre. Les fleurs sont assez originales, à symétrie bilatérale, à la corolle en tube court, et au limbe bilabié, à lèvres concaves, la supérieure très petite, l'inférieure plus grande, vésiculaire et gonflée, presque en forme de bourse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée, annuelle à feuilles en rosette, plutôt grandes, de 30 à 40 cm et jusqu'à 50-60 cm dans certains cas  molles, pubescentes ou velues, d'un vert sombre. Les fleurs sont assez originales, à symétrie bilatérale, à la corolle en tube court, et au limbe bilabié, à lèvres concaves, la supérieure très petite, l'inférieure plus grande, vésiculaire et gonflée, presque en forme de bourse.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calc%C3%A9olaire</t>
+          <t>Calcéolaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Calceolaria biflora Lamarck
 Calceolaria chelidonioides Kunth
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Calc%C3%A9olaire</t>
+          <t>Calcéolaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calcéolaire provient du latin calceolus, diminutif de calceus, « chaussure ou soulier »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calcéolaire provient du latin calceolus, diminutif de calceus, « chaussure ou soulier ».
 </t>
         </is>
       </c>
